--- a/doc/list_descriptor3D.xlsx
+++ b/doc/list_descriptor3D.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Geo 3D" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="864">
   <si>
     <t xml:space="preserve">Greometry 3D properties</t>
   </si>
@@ -1433,211 +1433,553 @@
     <t xml:space="preserve">L1u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM1</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM2</t>
+  </si>
+  <si>
     <t xml:space="preserve">L3u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tu</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Au</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vu</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM6</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM7</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ku</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM9</t>
+  </si>
+  <si>
     <t xml:space="preserve">E1u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM10</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM11</t>
+  </si>
+  <si>
     <t xml:space="preserve">E3u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Du</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM13</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM14</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM15</t>
+  </si>
+  <si>
     <t xml:space="preserve">L3m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tm</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Am</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vm</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM19</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM20</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Km</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM22</t>
+  </si>
+  <si>
     <t xml:space="preserve">E1m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM23</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM24</t>
+  </si>
+  <si>
     <t xml:space="preserve">E3m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dm</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM26</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM27</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM28</t>
+  </si>
+  <si>
     <t xml:space="preserve">L3e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM29</t>
+  </si>
+  <si>
     <t xml:space="preserve">Te</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ae</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM31</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ve</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM32</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM33</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM34</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ke</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM35</t>
+  </si>
+  <si>
     <t xml:space="preserve">E1e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM36</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM37</t>
+  </si>
+  <si>
     <t xml:space="preserve">E3e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM38</t>
+  </si>
+  <si>
     <t xml:space="preserve">De</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM39</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1v</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM40</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2v</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM41</t>
+  </si>
+  <si>
     <t xml:space="preserve">L3v</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM42</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tv</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM43</t>
+  </si>
+  <si>
     <t xml:space="preserve">Av</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM44</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vv</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM45</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1v</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM46</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2v</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM47</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kv</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM48</t>
+  </si>
+  <si>
     <t xml:space="preserve">E1v</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM49</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2v</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM50</t>
+  </si>
+  <si>
     <t xml:space="preserve">E3v</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM51</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dv</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM52</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM53</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM54</t>
+  </si>
+  <si>
     <t xml:space="preserve">L3p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM55</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tp</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM56</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ap</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM57</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vp</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM58</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM59</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM60</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kp</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM61</t>
+  </si>
+  <si>
     <t xml:space="preserve">E1p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM62</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM63</t>
+  </si>
+  <si>
     <t xml:space="preserve">E3p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM64</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dp</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM65</t>
+  </si>
+  <si>
     <t xml:space="preserve">P3p</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM66</t>
+  </si>
+  <si>
     <t xml:space="preserve">P3u</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM67</t>
+  </si>
+  <si>
     <t xml:space="preserve">P3m</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM68</t>
+  </si>
+  <si>
     <t xml:space="preserve">P3e</t>
   </si>
   <si>
+    <t xml:space="preserve">WHIM69</t>
+  </si>
+  <si>
     <t xml:space="preserve">P3v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIM114</t>
   </si>
   <si>
     <t xml:space="preserve">RDFU1</t>
@@ -2387,7 +2729,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2709,8 +3051,8 @@
   </sheetPr>
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H217" activeCellId="0" sqref="H217"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F226" activeCellId="0" sqref="F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6489,15 +6831,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,557 +6880,1671 @@
       <c r="B3" s="0" t="n">
         <v>27.438</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>27.438</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>10.624</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>10.624</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3.416</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>41.478</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>421.533</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1458.833</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.662</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.256</v>
       </c>
+      <c r="C10" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.492</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.489</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.319</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.337</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1.145</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>8.772</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>24.63</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>8.772</v>
       </c>
+      <c r="C17" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.835</v>
       </c>
+      <c r="C18" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>36.237</v>
       </c>
+      <c r="C19" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>310.759</v>
       </c>
+      <c r="C20" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>959.597</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.68</v>
       </c>
+      <c r="C22" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.242</v>
       </c>
+      <c r="C23" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.52</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.407</v>
       </c>
+      <c r="C25" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>26.536</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.221</v>
       </c>
+      <c r="C26" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>10.015</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.226</v>
       </c>
+      <c r="C27" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.854</v>
       </c>
+      <c r="C28" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>26.83</v>
       </c>
+      <c r="C29" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>10.239</v>
       </c>
+      <c r="C30" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.413</v>
       </c>
+      <c r="C31" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>40.483</v>
       </c>
+      <c r="C32" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>401.247</v>
       </c>
+      <c r="C33" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1379.379</v>
       </c>
+      <c r="C34" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.663</v>
       </c>
+      <c r="C35" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.253</v>
       </c>
+      <c r="C36" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.494</v>
       </c>
+      <c r="C37" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>10.239</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.471</v>
       </c>
+      <c r="C38" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>3.413</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.297</v>
       </c>
+      <c r="C39" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.335</v>
       </c>
+      <c r="C40" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1.103</v>
       </c>
+      <c r="C41" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>27.035</v>
       </c>
+      <c r="C42" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>10.336</v>
       </c>
+      <c r="C43" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2.875</v>
       </c>
+      <c r="C44" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>40.246</v>
       </c>
+      <c r="C45" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>386.895</v>
       </c>
+      <c r="C46" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1230.612</v>
       </c>
+      <c r="C47" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>27.442</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>513</v>
+        <v>558</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.672</v>
       </c>
+      <c r="C48" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>10.593</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.257</v>
       </c>
+      <c r="C49" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>2.936</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.508</v>
       </c>
+      <c r="C50" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.476</v>
       </c>
+      <c r="C51" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>517</v>
+        <v>566</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.303</v>
       </c>
+      <c r="C52" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0.238</v>
       </c>
+      <c r="C53" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1.017</v>
       </c>
+      <c r="C54" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>27.442</v>
       </c>
+      <c r="C55" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>10.593</v>
       </c>
+      <c r="C56" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2.936</v>
       </c>
+      <c r="C57" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>40.971</v>
       </c>
+      <c r="C58" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>27.247</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>402.359</v>
       </c>
+      <c r="C59" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>10.521</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1296.825</v>
       </c>
+      <c r="C60" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0.67</v>
       </c>
+      <c r="C61" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0.259</v>
       </c>
+      <c r="C62" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.505</v>
       </c>
+      <c r="C63" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0.489</v>
       </c>
+      <c r="C64" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.318</v>
       </c>
+      <c r="C65" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0.248</v>
       </c>
+      <c r="C66" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1.055</v>
       </c>
+      <c r="C67" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0.072</v>
       </c>
+      <c r="C68" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0.082</v>
       </c>
+      <c r="C69" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>25.784</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0.078</v>
       </c>
+      <c r="C70" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>9.062</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.084</v>
       </c>
+      <c r="C71" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0.071</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>41.478</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>36.237</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>39.437</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>40.483</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>40.971</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>41.285</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>38.425</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>421.532</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>310.761</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>371.23</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>401.244</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>402.362</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>419.494</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>358.391</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>1458.826</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>959.599</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>1177.447</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>1379.363</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>1296.835</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>1468.915</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>1233.206</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7145,7 +8604,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>11.727</v>
@@ -7153,7 +8612,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>15.278</v>
@@ -7161,7 +8620,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>540</v>
+        <v>654</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>12.92</v>
@@ -7169,7 +8628,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>541</v>
+        <v>655</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>46.192</v>
@@ -7177,7 +8636,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>15.924</v>
@@ -7185,7 +8644,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>543</v>
+        <v>657</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>23.071</v>
@@ -7193,7 +8652,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>24.048</v>
@@ -7201,7 +8660,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>545</v>
+        <v>659</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>21.522</v>
@@ -7209,7 +8668,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>36.015</v>
@@ -7217,7 +8676,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>547</v>
+        <v>661</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>17.617</v>
@@ -7225,7 +8684,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>548</v>
+        <v>662</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>31.1</v>
@@ -7233,7 +8692,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>549</v>
+        <v>663</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>23.624</v>
@@ -7241,7 +8700,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>550</v>
+        <v>664</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>35.271</v>
@@ -7249,7 +8708,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>551</v>
+        <v>665</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>26.555</v>
@@ -7257,7 +8716,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>29.706</v>
@@ -7265,7 +8724,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>33.095</v>
@@ -7273,7 +8732,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>554</v>
+        <v>668</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>29.589</v>
@@ -7281,7 +8740,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>555</v>
+        <v>669</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>26.702</v>
@@ -7289,7 +8748,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>26.934</v>
@@ -7297,7 +8756,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>30.991</v>
@@ -7305,7 +8764,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>27.898</v>
@@ -7313,7 +8772,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>32.594</v>
@@ -7321,7 +8780,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>560</v>
+        <v>674</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>18.281</v>
@@ -7329,7 +8788,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>561</v>
+        <v>675</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>21.08</v>
@@ -7337,7 +8796,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>562</v>
+        <v>676</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>26.087</v>
@@ -7345,7 +8804,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>18.423</v>
@@ -7353,7 +8812,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>564</v>
+        <v>678</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>15.608</v>
@@ -7361,7 +8820,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>565</v>
+        <v>679</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>12.679</v>
@@ -7369,7 +8828,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>566</v>
+        <v>680</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>12.17</v>
@@ -7377,7 +8836,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>567</v>
+        <v>681</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>14.09</v>
@@ -7385,7 +8844,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>568</v>
+        <v>682</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -7393,7 +8852,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -7401,7 +8860,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -7409,7 +8868,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>571</v>
+        <v>685</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -7417,7 +8876,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>572</v>
+        <v>686</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -7425,7 +8884,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>573</v>
+        <v>687</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -7433,7 +8892,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>574</v>
+        <v>688</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -7441,7 +8900,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -7449,7 +8908,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>576</v>
+        <v>690</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -7457,7 +8916,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>577</v>
+        <v>691</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -7465,7 +8924,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -7473,7 +8932,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>579</v>
+        <v>693</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -7481,7 +8940,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -7489,7 +8948,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -7497,7 +8956,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -7505,7 +8964,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -7513,7 +8972,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>584</v>
+        <v>698</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -7521,7 +8980,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>585</v>
+        <v>699</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -7529,7 +8988,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>586</v>
+        <v>700</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -7537,7 +8996,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>587</v>
+        <v>701</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -7545,7 +9004,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -7553,7 +9012,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>589</v>
+        <v>703</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -7561,7 +9020,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>590</v>
+        <v>704</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -7569,7 +9028,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -7577,7 +9036,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>592</v>
+        <v>706</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -7585,7 +9044,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>593</v>
+        <v>707</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -7593,7 +9052,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>594</v>
+        <v>708</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
@@ -7601,7 +9060,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -7609,7 +9068,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>596</v>
+        <v>710</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -7617,7 +9076,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>597</v>
+        <v>711</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
@@ -7625,7 +9084,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>598</v>
+        <v>712</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1.043</v>
@@ -7633,7 +9092,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>599</v>
+        <v>713</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>16.351</v>
@@ -7641,7 +9100,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1.474</v>
@@ -7649,7 +9108,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>31.279</v>
@@ -7657,7 +9116,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>4.121</v>
@@ -7665,7 +9124,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>603</v>
+        <v>717</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>15.006</v>
@@ -7673,7 +9132,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>604</v>
+        <v>718</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>9.365</v>
@@ -7681,7 +9140,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>605</v>
+        <v>719</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>12.689</v>
@@ -7689,7 +9148,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>606</v>
+        <v>720</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>20.939</v>
@@ -7697,7 +9156,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>607</v>
+        <v>721</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>7.786</v>
@@ -7705,7 +9164,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>608</v>
+        <v>722</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>18.113</v>
@@ -7713,7 +9172,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>17.859</v>
@@ -7721,7 +9180,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>610</v>
+        <v>724</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>16.989</v>
@@ -7729,7 +9188,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>10.579</v>
@@ -7737,7 +9196,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>612</v>
+        <v>726</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>13.729</v>
@@ -7745,7 +9204,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>613</v>
+        <v>727</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>18.49</v>
@@ -7753,7 +9212,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>614</v>
+        <v>728</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>19.203</v>
@@ -7761,7 +9220,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>615</v>
+        <v>729</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>9.782</v>
@@ -7769,7 +9228,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>616</v>
+        <v>730</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>16.755</v>
@@ -7777,7 +9236,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>617</v>
+        <v>731</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>18.306</v>
@@ -7785,7 +9244,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>618</v>
+        <v>732</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>16.819</v>
@@ -7793,7 +9252,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>14.357</v>
@@ -7801,7 +9260,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>620</v>
+        <v>734</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>9.544</v>
@@ -7809,7 +9268,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>621</v>
+        <v>735</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>10.11</v>
@@ -7817,7 +9276,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>622</v>
+        <v>736</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>12.017</v>
@@ -7825,7 +9284,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>623</v>
+        <v>737</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>6.516</v>
@@ -7833,7 +9292,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>624</v>
+        <v>738</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>3.834</v>
@@ -7841,7 +9300,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>625</v>
+        <v>739</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>5.544</v>
@@ -7849,7 +9308,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>4.332</v>
@@ -7857,7 +9316,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>627</v>
+        <v>741</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>4.832</v>
@@ -7865,7 +9324,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>628</v>
+        <v>742</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>4.072</v>
@@ -7873,7 +9332,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>629</v>
+        <v>743</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>13.348</v>
@@ -7881,7 +9340,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4.032</v>
@@ -7889,7 +9348,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>631</v>
+        <v>745</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>24.56</v>
@@ -7897,7 +9356,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>632</v>
+        <v>746</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>4.416</v>
@@ -7905,7 +9364,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>633</v>
+        <v>747</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>11.812</v>
@@ -7913,7 +9372,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>634</v>
+        <v>748</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>7.912</v>
@@ -7921,7 +9380,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>635</v>
+        <v>749</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>9.468</v>
@@ -7929,7 +9388,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>636</v>
+        <v>750</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>15.286</v>
@@ -7937,7 +9396,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>637</v>
+        <v>751</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>7.499</v>
@@ -7945,7 +9404,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>638</v>
+        <v>752</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>14.516</v>
@@ -7953,7 +9412,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>639</v>
+        <v>753</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>14.412</v>
@@ -7961,7 +9420,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>640</v>
+        <v>754</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>14.748</v>
@@ -7969,7 +9428,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>641</v>
+        <v>755</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>11.788</v>
@@ -7977,7 +9436,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>642</v>
+        <v>756</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>13.111</v>
@@ -7985,7 +9444,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>643</v>
+        <v>757</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>16.676</v>
@@ -7993,7 +9452,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>644</v>
+        <v>758</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>14.896</v>
@@ -8001,7 +9460,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>645</v>
+        <v>759</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>10.873</v>
@@ -8009,7 +9468,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>646</v>
+        <v>760</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>15.014</v>
@@ -8017,7 +9476,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>647</v>
+        <v>761</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>15.186</v>
@@ -8025,7 +9484,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>648</v>
+        <v>762</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>13.469</v>
@@ -8033,7 +9492,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>649</v>
+        <v>763</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>14.134</v>
@@ -8041,7 +9500,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>650</v>
+        <v>764</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>10.19</v>
@@ -8049,7 +9508,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>651</v>
+        <v>765</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>9.948</v>
@@ -8057,7 +9516,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>652</v>
+        <v>766</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>12.231</v>
@@ -8065,7 +9524,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>653</v>
+        <v>767</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>8.329</v>
@@ -8073,7 +9532,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>5.976</v>
@@ -8081,7 +9540,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>655</v>
+        <v>769</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>7.402</v>
@@ -8089,7 +9548,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>656</v>
+        <v>770</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>4.805</v>
@@ -8097,7 +9556,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>657</v>
+        <v>771</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>7.046</v>
@@ -8105,7 +9564,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>658</v>
+        <v>772</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>11.628</v>
@@ -8113,7 +9572,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>659</v>
+        <v>773</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>16.299</v>
@@ -8121,7 +9580,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>660</v>
+        <v>774</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>13.658</v>
@@ -8129,7 +9588,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>661</v>
+        <v>775</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>49.946</v>
@@ -8137,7 +9596,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>662</v>
+        <v>776</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>17.328</v>
@@ -8145,7 +9604,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>663</v>
+        <v>777</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>24.665</v>
@@ -8153,7 +9612,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>664</v>
+        <v>778</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>26.355</v>
@@ -8161,7 +9620,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>665</v>
+        <v>779</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>23.785</v>
@@ -8169,7 +9628,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>666</v>
+        <v>780</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>39.624</v>
@@ -8177,7 +9636,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>667</v>
+        <v>781</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>18.612</v>
@@ -8185,7 +9644,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>668</v>
+        <v>782</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>34.03</v>
@@ -8193,7 +9652,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>669</v>
+        <v>783</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>25.331</v>
@@ -8201,7 +9660,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>670</v>
+        <v>784</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>37.689</v>
@@ -8209,7 +9668,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>671</v>
+        <v>785</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>27.302</v>
@@ -8217,7 +9676,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>30.681</v>
@@ -8225,7 +9684,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>673</v>
+        <v>787</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>34.757</v>
@@ -8233,7 +9692,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>674</v>
+        <v>788</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>31.474</v>
@@ -8241,7 +9700,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>675</v>
+        <v>789</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>27.891</v>
@@ -8249,7 +9708,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>676</v>
+        <v>790</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>28.052</v>
@@ -8257,7 +9716,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>677</v>
+        <v>791</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>33.139</v>
@@ -8265,7 +9724,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>678</v>
+        <v>792</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>30.358</v>
@@ -8273,7 +9732,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>679</v>
+        <v>793</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>34.251</v>
@@ -8281,7 +9740,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>680</v>
+        <v>794</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>18.291</v>
@@ -8289,7 +9748,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>681</v>
+        <v>795</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>22.008</v>
@@ -8297,7 +9756,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>682</v>
+        <v>796</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>27.2</v>
@@ -8305,7 +9764,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>683</v>
+        <v>797</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>18.752</v>
@@ -8313,7 +9772,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>684</v>
+        <v>798</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>14.935</v>
@@ -8321,7 +9780,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>685</v>
+        <v>799</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>12.374</v>
@@ -8329,7 +9788,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>686</v>
+        <v>800</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>12.106</v>
@@ -8337,7 +9796,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>687</v>
+        <v>801</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>13.616</v>
@@ -8345,7 +9804,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>688</v>
+        <v>802</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>3.23</v>
@@ -8353,7 +9812,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>689</v>
+        <v>803</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>13.614</v>
@@ -8361,7 +9820,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>690</v>
+        <v>804</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>3.306</v>
@@ -8369,7 +9828,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>691</v>
+        <v>805</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>24.408</v>
@@ -8377,7 +9836,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>692</v>
+        <v>806</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>3.851</v>
@@ -8385,7 +9844,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>693</v>
+        <v>807</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>11.482</v>
@@ -8393,7 +9852,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>694</v>
+        <v>808</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>7.303</v>
@@ -8401,7 +9860,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>695</v>
+        <v>809</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>9.172</v>
@@ -8409,7 +9868,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>696</v>
+        <v>810</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>14.939</v>
@@ -8417,7 +9876,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>697</v>
+        <v>811</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>7.077</v>
@@ -8425,7 +9884,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>698</v>
+        <v>812</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>13.993</v>
@@ -8433,7 +9892,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>699</v>
+        <v>813</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>14.313</v>
@@ -8441,7 +9900,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>700</v>
+        <v>814</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>13.763</v>
@@ -8449,7 +9908,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>10.822</v>
@@ -8457,7 +9916,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>702</v>
+        <v>816</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>12.226</v>
@@ -8465,7 +9924,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>703</v>
+        <v>817</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>15.937</v>
@@ -8473,7 +9932,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>704</v>
+        <v>818</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>14.565</v>
@@ -8481,7 +9940,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>705</v>
+        <v>819</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>9.754</v>
@@ -8489,7 +9948,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>706</v>
+        <v>820</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>14.705</v>
@@ -8497,7 +9956,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>707</v>
+        <v>821</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>14.885</v>
@@ -8505,7 +9964,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>708</v>
+        <v>822</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>12.982</v>
@@ -8513,7 +9972,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>709</v>
+        <v>823</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>13.005</v>
@@ -8521,7 +9980,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>710</v>
+        <v>824</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>9.662</v>
@@ -8529,7 +9988,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>711</v>
+        <v>825</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>9.311</v>
@@ -8537,7 +9996,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>712</v>
+        <v>826</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>11.423</v>
@@ -8545,7 +10004,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>713</v>
+        <v>827</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>7.607</v>
@@ -8553,7 +10012,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>714</v>
+        <v>828</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>5.18</v>
@@ -8561,7 +10020,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>715</v>
+        <v>829</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>6.85</v>
@@ -8569,7 +10028,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>716</v>
+        <v>830</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>4.307</v>
@@ -8577,7 +10036,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>717</v>
+        <v>831</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>6.375</v>
@@ -8612,7 +10071,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>718</v>
+        <v>832</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -8640,7 +10099,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>719</v>
+        <v>833</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>959.246260996429</v>
@@ -8648,7 +10107,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>720</v>
+        <v>834</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>582.808915574235</v>
@@ -8656,7 +10115,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>721</v>
+        <v>835</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -8664,7 +10123,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>722</v>
+        <v>836</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -8672,7 +10131,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>723</v>
+        <v>837</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -8680,7 +10139,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>724</v>
+        <v>838</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -8688,7 +10147,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>725</v>
+        <v>839</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -8696,7 +10155,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>726</v>
+        <v>840</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -8704,7 +10163,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>727</v>
+        <v>841</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -8712,7 +10171,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>728</v>
+        <v>842</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -8720,7 +10179,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>729</v>
+        <v>843</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -8728,7 +10187,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>730</v>
+        <v>844</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -8736,7 +10195,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>731</v>
+        <v>845</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -8744,7 +10203,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -8752,7 +10211,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>733</v>
+        <v>847</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -8760,7 +10219,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>734</v>
+        <v>848</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -8768,7 +10227,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>735</v>
+        <v>849</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -8776,7 +10235,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>736</v>
+        <v>850</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -8784,7 +10243,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>737</v>
+        <v>851</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -8792,7 +10251,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -8800,7 +10259,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>739</v>
+        <v>853</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -8808,7 +10267,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>740</v>
+        <v>854</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -8816,7 +10275,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>741</v>
+        <v>855</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -8824,7 +10283,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>742</v>
+        <v>856</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>959.246260996429</v>
@@ -8832,7 +10291,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>743</v>
+        <v>857</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -8840,7 +10299,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>744</v>
+        <v>858</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -8848,7 +10307,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>745</v>
+        <v>859</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8856,23 +10315,23 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>746</v>
+        <v>860</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>747</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>748</v>
+        <v>862</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>747</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>749</v>
+        <v>863</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>

--- a/doc/list_descriptor3D.xlsx
+++ b/doc/list_descriptor3D.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Geo 3D" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,8 @@
     <sheet name="Whim" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="RDF" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="CPSA" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="GETAWAY" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="AutoCor3D" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="1434">
   <si>
     <t xml:space="preserve">Greometry 3D properties</t>
   </si>
@@ -1982,546 +1984,1179 @@
     <t xml:space="preserve">WHIM114</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF properties</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU1</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU2</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF2</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU3</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF3</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU4</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF4</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU5</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF5</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU6</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF6</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU7</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF7</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU8</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF8</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU9</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF9</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU10</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF10</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU11</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF11</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU12</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF12</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU13</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF13</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU14</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF14</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU15</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF15</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU16</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF16</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU17</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF17</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU18</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF18</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU19</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF19</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU20</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF20</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU21</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF21</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU22</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF22</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU23</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF23</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU24</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF24</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU25</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF25</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU26</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF26</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU27</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF27</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU28</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF28</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU29</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF29</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFU30</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF30</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC1</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF31</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC2</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF32</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC3</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF33</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC4</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF34</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC5</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF35</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC6</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF36</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC7</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF37</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC8</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF38</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC9</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF39</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC10</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF40</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC11</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF41</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC12</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF42</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC13</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF43</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC14</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF44</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC15</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF45</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC16</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF46</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC17</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF47</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC18</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF48</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC19</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF49</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC20</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF50</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC21</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF51</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC22</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF52</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC23</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF53</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC24</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF54</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC25</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF55</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC26</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF56</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC27</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF57</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC28</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF58</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC29</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF59</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFC30</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF60</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM1</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF61</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM2</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF62</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM3</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF63</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM4</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF64</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM5</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF65</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM6</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF66</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM7</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF67</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM8</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF68</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM9</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF69</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM10</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF70</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM11</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF71</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM12</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF72</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM13</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF73</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM14</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF74</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM15</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF75</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM16</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF76</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM17</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF77</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM18</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF78</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM19</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF79</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM20</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF80</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM21</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF81</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM22</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF82</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM23</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF83</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM24</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF84</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM25</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF85</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM26</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF86</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM27</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF87</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM28</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF88</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM29</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF89</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFM30</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF90</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP1</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF91</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP2</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF92</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP3</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF93</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP4</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF94</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP5</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF95</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP6</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF96</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP7</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF97</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP8</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF98</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP9</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF99</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP10</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF100</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP11</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF101</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP12</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF102</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP13</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF103</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP14</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF104</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP15</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF105</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP16</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF106</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP17</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF107</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP18</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF108</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP19</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF109</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP20</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF110</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP21</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF111</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP22</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF112</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP23</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF113</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP24</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF114</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP25</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF115</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP26</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF116</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP27</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF117</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP28</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF118</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP29</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF119</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFP30</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF120</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE1</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF121</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE2</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF122</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE3</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF123</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE4</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF124</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE5</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF125</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE6</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF126</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE7</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF127</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE8</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF128</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE9</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF129</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE10</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF130</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE11</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF131</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE12</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF132</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE13</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF133</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE14</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF134</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE15</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF135</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE16</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF136</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE17</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF137</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE18</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF138</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE19</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF139</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE20</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF140</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE21</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF141</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE22</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF142</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE23</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF143</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE24</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF144</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE25</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF145</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE26</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF146</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE27</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF147</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE28</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF148</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE29</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF149</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFE30</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF150</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV1</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF151</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV2</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF152</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV3</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF153</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV4</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF154</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV5</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF155</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV6</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF156</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV7</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF157</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV8</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF158</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV9</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF159</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV10</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF160</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV11</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF161</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV12</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF162</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV13</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF163</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV14</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF164</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV15</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF165</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV16</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF166</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV17</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF167</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV18</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF168</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV19</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF169</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV20</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF170</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV21</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF171</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV22</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF172</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV23</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF173</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV24</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF174</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV25</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF175</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV26</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF176</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV27</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF177</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV28</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF178</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV29</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF179</t>
+  </si>
+  <si>
     <t xml:space="preserve">RDFV30</t>
   </si>
   <si>
+    <t xml:space="preserve">RDF180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF210</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPSA properties</t>
   </si>
   <si>
@@ -2558,6 +3193,9 @@
     <t xml:space="preserve">DPSA3</t>
   </si>
   <si>
+    <t xml:space="preserve">Mostly error because molecules not charged, need to control the cleanning process</t>
+  </si>
+  <si>
     <t xml:space="preserve">FNSA1</t>
   </si>
   <si>
@@ -2616,6 +3254,1080 @@
   </si>
   <si>
     <t xml:space="preserve">FrTATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDKIT3.1 update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAWAY273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCOR3D properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From rdkit3 lib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOCORR3D80</t>
   </si>
 </sst>
 </file>
@@ -3051,7 +4763,7 @@
   </sheetPr>
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F226" activeCellId="0" sqref="F226"/>
     </sheetView>
   </sheetViews>
@@ -6833,7 +8545,7 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -8563,7 +10275,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -8576,7 +10288,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>652</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -8604,1442 +10316,2762 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>11.727</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>11.726</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>15.278</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>15.277</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>12.92</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>12.919</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>46.192</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>46.191</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>15.924</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>15.924</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>23.071</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>23.069</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>24.048</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>24.051</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>21.522</v>
       </c>
+      <c r="C10" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>21.517</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>36.015</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>36.014</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>17.617</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>17.616</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>31.1</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>31.101</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>23.624</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>23.625</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>35.271</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>35.274</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>26.555</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>26.555</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>29.706</v>
       </c>
+      <c r="C17" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>29.706</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>33.095</v>
       </c>
+      <c r="C18" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>33.096</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>29.589</v>
       </c>
+      <c r="C19" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>29.592</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>26.702</v>
       </c>
+      <c r="C20" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>26.702</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>26.934</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>26.934</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>30.991</v>
       </c>
+      <c r="C22" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>30.99</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>27.898</v>
       </c>
+      <c r="C23" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>27.896</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>32.594</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>32.593</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>18.281</v>
       </c>
+      <c r="C25" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>18.28</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>21.08</v>
       </c>
+      <c r="C26" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>21.08</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>26.087</v>
       </c>
+      <c r="C27" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>26.085</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>18.423</v>
       </c>
+      <c r="C28" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>18.422</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>15.608</v>
       </c>
+      <c r="C29" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>15.608</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>12.679</v>
       </c>
+      <c r="C30" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>12.678</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>12.17</v>
       </c>
+      <c r="C31" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>12.171</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>14.09</v>
       </c>
+      <c r="C32" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>14.091</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>682</v>
+        <v>713</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C33" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1.043</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C34" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>16.321</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C35" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1.474</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C36" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>31.226</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C37" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>4.116</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C38" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>14.982</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C39" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>9.355</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>689</v>
+        <v>727</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C40" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>12.667</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C41" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>20.906</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C42" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>7.773</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>692</v>
+        <v>733</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C43" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>18.085</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C44" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>17.831</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C45" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>16.968</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>695</v>
+        <v>739</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C46" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>10.564</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>696</v>
+        <v>741</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C47" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>13.711</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C48" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>18.462</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>698</v>
+        <v>745</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C49" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>19.172</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>699</v>
+        <v>747</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C50" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>9.769</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C51" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>16.728</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>701</v>
+        <v>751</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C52" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>18.277</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>702</v>
+        <v>753</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C53" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>16.792</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>703</v>
+        <v>755</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C54" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>14.335</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>704</v>
+        <v>757</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C55" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>9.53</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>705</v>
+        <v>759</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C56" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>10.094</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>706</v>
+        <v>761</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C57" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>11.997</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>707</v>
+        <v>763</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C58" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>6.506</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>708</v>
+        <v>765</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C59" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>3.83</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C60" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>5.535</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>710</v>
+        <v>769</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C61" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>4.326</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>711</v>
+        <v>771</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C62" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>4.825</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>712</v>
+        <v>773</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1.043</v>
       </c>
+      <c r="C63" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2.948</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>713</v>
+        <v>775</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>16.351</v>
       </c>
+      <c r="C64" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>14.172</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1.474</v>
       </c>
+      <c r="C65" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>3.196</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>715</v>
+        <v>779</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>31.279</v>
       </c>
+      <c r="C66" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>25.906</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>716</v>
+        <v>781</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>4.121</v>
       </c>
+      <c r="C67" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>4.133</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>717</v>
+        <v>783</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>15.006</v>
       </c>
+      <c r="C68" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>12.065</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>718</v>
+        <v>785</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>9.365</v>
       </c>
+      <c r="C69" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>7.885</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>719</v>
+        <v>787</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>12.689</v>
       </c>
+      <c r="C70" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>9.978</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>720</v>
+        <v>789</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>20.939</v>
       </c>
+      <c r="C71" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>16.402</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>721</v>
+        <v>791</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>7.786</v>
       </c>
+      <c r="C72" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>7.264</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>722</v>
+        <v>793</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>18.113</v>
       </c>
+      <c r="C73" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>15.12</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>723</v>
+        <v>795</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>17.859</v>
       </c>
+      <c r="C74" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>15.119</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>16.989</v>
       </c>
+      <c r="C75" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>14.589</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>725</v>
+        <v>799</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>10.579</v>
       </c>
+      <c r="C76" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>10.996</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>726</v>
+        <v>801</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>13.729</v>
       </c>
+      <c r="C77" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>12.673</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>727</v>
+        <v>803</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>18.49</v>
       </c>
+      <c r="C78" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>16.622</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>728</v>
+        <v>805</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>19.203</v>
       </c>
+      <c r="C79" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>15.564</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>9.782</v>
       </c>
+      <c r="C80" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>9.93</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>730</v>
+        <v>809</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>16.755</v>
       </c>
+      <c r="C81" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>15.172</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>731</v>
+        <v>811</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>18.306</v>
       </c>
+      <c r="C82" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>15.76</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>732</v>
+        <v>813</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>16.819</v>
       </c>
+      <c r="C83" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>13.802</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>733</v>
+        <v>815</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>14.357</v>
       </c>
+      <c r="C84" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>13.593</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>734</v>
+        <v>817</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>9.544</v>
       </c>
+      <c r="C85" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>9.663</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>735</v>
+        <v>819</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>10.11</v>
       </c>
+      <c r="C86" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>9.66</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>736</v>
+        <v>821</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>12.017</v>
       </c>
+      <c r="C87" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>11.823</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>6.516</v>
       </c>
+      <c r="C88" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>7.592</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>738</v>
+        <v>825</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>3.834</v>
       </c>
+      <c r="C89" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>4.978</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>739</v>
+        <v>827</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>5.544</v>
       </c>
+      <c r="C90" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>6.655</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>4.332</v>
       </c>
+      <c r="C91" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>4.412</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>4.832</v>
       </c>
+      <c r="C92" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>6.136</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>4.072</v>
       </c>
+      <c r="C93" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>11.627</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>13.348</v>
       </c>
+      <c r="C94" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>16.298</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>744</v>
+        <v>837</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4.032</v>
       </c>
+      <c r="C95" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>13.656</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>24.56</v>
       </c>
+      <c r="C96" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>49.944</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>746</v>
+        <v>841</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>4.416</v>
       </c>
+      <c r="C97" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>17.327</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>747</v>
+        <v>843</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>11.812</v>
       </c>
+      <c r="C98" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>24.663</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>7.912</v>
       </c>
+      <c r="C99" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>26.358</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>9.468</v>
       </c>
+      <c r="C100" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>23.779</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>750</v>
+        <v>849</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>15.286</v>
       </c>
+      <c r="C101" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>39.622</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>751</v>
+        <v>851</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>7.499</v>
       </c>
+      <c r="C102" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>18.61</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>752</v>
+        <v>853</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>14.516</v>
       </c>
+      <c r="C103" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>34.03</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>14.412</v>
       </c>
+      <c r="C104" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>25.333</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>754</v>
+        <v>857</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>14.748</v>
       </c>
+      <c r="C105" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>37.693</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>11.788</v>
       </c>
+      <c r="C106" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>27.302</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>756</v>
+        <v>861</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>13.111</v>
       </c>
+      <c r="C107" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>30.681</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>16.676</v>
       </c>
+      <c r="C108" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>34.758</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>758</v>
+        <v>865</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>14.896</v>
       </c>
+      <c r="C109" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>31.476</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>759</v>
+        <v>867</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>10.873</v>
       </c>
+      <c r="C110" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>27.891</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>760</v>
+        <v>869</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>15.014</v>
       </c>
+      <c r="C111" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>28.052</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>761</v>
+        <v>871</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>15.186</v>
       </c>
+      <c r="C112" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>33.138</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>762</v>
+        <v>873</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>13.469</v>
       </c>
+      <c r="C113" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>30.355</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>763</v>
+        <v>875</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>14.134</v>
       </c>
+      <c r="C114" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>34.249</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>764</v>
+        <v>877</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>10.19</v>
       </c>
+      <c r="C115" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>18.289</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>765</v>
+        <v>879</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>9.948</v>
       </c>
+      <c r="C116" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>22.008</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>766</v>
+        <v>881</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>12.231</v>
       </c>
+      <c r="C117" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>27.198</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>767</v>
+        <v>883</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>8.329</v>
       </c>
+      <c r="C118" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>18.75</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>768</v>
+        <v>885</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>5.976</v>
       </c>
+      <c r="C119" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>14.934</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>769</v>
+        <v>887</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>7.402</v>
       </c>
+      <c r="C120" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>12.374</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>770</v>
+        <v>889</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>4.805</v>
       </c>
+      <c r="C121" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>12.106</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>771</v>
+        <v>891</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>7.046</v>
       </c>
+      <c r="C122" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>13.617</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>772</v>
+        <v>893</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>11.628</v>
       </c>
+      <c r="C123" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>4.072</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>773</v>
+        <v>895</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>16.299</v>
       </c>
+      <c r="C124" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>13.348</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>774</v>
+        <v>897</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>13.658</v>
       </c>
+      <c r="C125" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>4.032</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>775</v>
+        <v>899</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>49.946</v>
       </c>
+      <c r="C126" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>24.559</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>776</v>
+        <v>901</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>17.328</v>
       </c>
+      <c r="C127" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>4.416</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>777</v>
+        <v>903</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>24.665</v>
       </c>
+      <c r="C128" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>11.811</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>778</v>
+        <v>905</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>26.355</v>
       </c>
+      <c r="C129" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>7.913</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>779</v>
+        <v>907</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>23.785</v>
       </c>
+      <c r="C130" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>9.465</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>780</v>
+        <v>909</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>39.624</v>
       </c>
+      <c r="C131" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>15.285</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>781</v>
+        <v>911</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>18.612</v>
       </c>
+      <c r="C132" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>7.498</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>782</v>
+        <v>913</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>34.03</v>
       </c>
+      <c r="C133" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>14.516</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>783</v>
+        <v>915</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>25.331</v>
       </c>
+      <c r="C134" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>14.413</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>784</v>
+        <v>917</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>37.689</v>
       </c>
+      <c r="C135" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>14.75</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>785</v>
+        <v>919</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>27.302</v>
       </c>
+      <c r="C136" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>11.788</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>786</v>
+        <v>921</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>30.681</v>
       </c>
+      <c r="C137" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>13.112</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>787</v>
+        <v>923</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>34.757</v>
       </c>
+      <c r="C138" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>16.678</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>788</v>
+        <v>925</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>31.474</v>
       </c>
+      <c r="C139" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>14.897</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>789</v>
+        <v>927</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>27.891</v>
       </c>
+      <c r="C140" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>10.873</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>790</v>
+        <v>929</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>28.052</v>
       </c>
+      <c r="C141" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>15.014</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>791</v>
+        <v>931</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>33.139</v>
       </c>
+      <c r="C142" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>15.186</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>792</v>
+        <v>933</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>30.358</v>
       </c>
+      <c r="C143" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>13.468</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>793</v>
+        <v>935</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>34.251</v>
       </c>
+      <c r="C144" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>14.134</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>794</v>
+        <v>937</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>18.291</v>
       </c>
+      <c r="C145" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>10.189</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>795</v>
+        <v>939</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>22.008</v>
       </c>
+      <c r="C146" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>9.948</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>796</v>
+        <v>941</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>27.2</v>
       </c>
+      <c r="C147" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>12.229</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>797</v>
+        <v>943</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>18.752</v>
       </c>
+      <c r="C148" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>8.328</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>798</v>
+        <v>945</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>14.935</v>
       </c>
+      <c r="C149" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>5.976</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>799</v>
+        <v>947</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>12.374</v>
       </c>
+      <c r="C150" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>7.402</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>12.106</v>
       </c>
+      <c r="C151" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>4.805</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>801</v>
+        <v>951</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>13.616</v>
       </c>
+      <c r="C152" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>7.047</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>802</v>
+        <v>953</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>3.23</v>
       </c>
+      <c r="C153" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>14.638</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>803</v>
+        <v>955</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>13.614</v>
       </c>
+      <c r="C154" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>16.325</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>804</v>
+        <v>957</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>3.306</v>
       </c>
+      <c r="C155" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>16.903</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>805</v>
+        <v>959</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>24.408</v>
       </c>
+      <c r="C156" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>58.673</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>806</v>
+        <v>961</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>3.851</v>
       </c>
+      <c r="C157" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>21.942</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>807</v>
+        <v>963</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>11.482</v>
       </c>
+      <c r="C158" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>28.66</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>808</v>
+        <v>965</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>7.303</v>
       </c>
+      <c r="C159" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>32.711</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>809</v>
+        <v>967</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>9.172</v>
       </c>
+      <c r="C160" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>27.825</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>810</v>
+        <v>969</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>14.939</v>
       </c>
+      <c r="C161" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>46.973</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>811</v>
+        <v>971</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>7.077</v>
       </c>
+      <c r="C162" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>23.052</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>812</v>
+        <v>973</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>13.993</v>
       </c>
+      <c r="C163" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>39.154</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>813</v>
+        <v>975</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>14.313</v>
       </c>
+      <c r="C164" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>814</v>
+        <v>977</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>13.763</v>
       </c>
+      <c r="C165" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>44.951</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>815</v>
+        <v>979</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>10.822</v>
       </c>
+      <c r="C166" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>33.083</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>816</v>
+        <v>981</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>12.226</v>
       </c>
+      <c r="C167" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>37.84</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>817</v>
+        <v>983</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>15.937</v>
       </c>
+      <c r="C168" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>40.87</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>818</v>
+        <v>985</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>14.565</v>
       </c>
+      <c r="C169" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>36.815</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>819</v>
+        <v>987</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>9.754</v>
       </c>
+      <c r="C170" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>33.894</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>820</v>
+        <v>989</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>14.705</v>
       </c>
+      <c r="C171" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>33.193</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>821</v>
+        <v>991</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>14.885</v>
       </c>
+      <c r="C172" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>39.235</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>822</v>
+        <v>993</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>12.982</v>
       </c>
+      <c r="C173" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>35.093</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>823</v>
+        <v>995</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>13.005</v>
       </c>
+      <c r="C174" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>40.778</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>824</v>
+        <v>997</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>9.662</v>
       </c>
+      <c r="C175" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>22.001</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>825</v>
+        <v>999</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>9.311</v>
       </c>
+      <c r="C176" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>25.891</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>826</v>
+        <v>1001</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>11.423</v>
       </c>
+      <c r="C177" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>32.143</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>7.607</v>
       </c>
+      <c r="C178" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>23.114</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>828</v>
+        <v>1005</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>5.18</v>
       </c>
+      <c r="C179" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>20.089</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>829</v>
+        <v>1007</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>6.85</v>
       </c>
+      <c r="C180" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>14.805</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>830</v>
+        <v>1009</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>4.307</v>
       </c>
+      <c r="C181" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>15.451</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>831</v>
+        <v>1011</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>6.375</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>17.154</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>30.039</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>53.885</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>31.939</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>177.569</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>54.314</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>84.305</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>91.67</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>80.801</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>161.443</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>51.852</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>134.78</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>88.916</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>160.05</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>81.011</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>101.102</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>126.419</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>108.98</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>115.396</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>91.732</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>124.581</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>141.302</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>144.133</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>56.936</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>82.661</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>100.296</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>59.979</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>33.613</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>35.695</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>41.469</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>35.698</v>
       </c>
     </row>
   </sheetData>
@@ -10058,10 +13090,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10071,7 +13103,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>832</v>
+        <v>1043</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -10099,242 +13131,4421 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>833</v>
+        <v>1044</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>959.246260996429</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>959.246261</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>834</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>582.808915574235</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>582.808916</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>835</v>
+        <v>1046</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>836</v>
+        <v>1047</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>837</v>
+        <v>1048</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>838</v>
+        <v>1049</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>839</v>
+        <v>1050</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>840</v>
+        <v>1051</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C10" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>841</v>
+        <v>1052</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>842</v>
+        <v>1053</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>843</v>
+        <v>1054</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>844</v>
+        <v>1056</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>845</v>
+        <v>1057</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>846</v>
+        <v>1058</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>847</v>
+        <v>1059</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C17" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>848</v>
+        <v>1060</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C18" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>849</v>
+        <v>1061</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C19" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>850</v>
+        <v>1062</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C20" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>851</v>
+        <v>1063</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>852</v>
+        <v>1064</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C22" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>853</v>
+        <v>1065</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C23" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>854</v>
+        <v>1066</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>855</v>
+        <v>1067</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C25" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>856</v>
+        <v>1068</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>959.246260996429</v>
       </c>
+      <c r="C26" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>959.246261</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>857</v>
+        <v>1069</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C27" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>858</v>
+        <v>1070</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C28" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>859</v>
+        <v>1071</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C29" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>860</v>
+        <v>1072</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>861</v>
+        <v>1073</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>862</v>
+        <v>1074</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>861</v>
+        <v>1073</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>863</v>
+        <v>1075</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F275"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>202.574</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5.691</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2.919</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.771</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.693</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>43.055</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1.834</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>19.058</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>3.304</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>18.601</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>44.301</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>9.073</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>19.636</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>4.473</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>5.371</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>54.118</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>11.372</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>15.547</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>10.138</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>13.671</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>13.901</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>11.985</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>6.924</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>4.979</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>161.201</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>30.482</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>29.578</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>2.326</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>28.421</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>13.091</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>12.902</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F200" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>1.939</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>29.292</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C232" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="F233" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C238" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C239" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C241" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>2.236</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C242" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C243" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="F246" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C247" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C248" s="0" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>35.282</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C249" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C250" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C253" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F254" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C255" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>8.295</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>6.751</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>5.672</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C261" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>4.716</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C262" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>2.981</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C263" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C264" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C265" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>2.728</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C266" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>103.665</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C269" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C272" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F82"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="0" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1.607</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>1354</v>
       </c>
     </row>
   </sheetData>
